--- a/oneamp/ampli_bar_lig_adaptor_24.xlsx
+++ b/oneamp/ampli_bar_lig_adaptor_24.xlsx
@@ -22,220 +22,220 @@
     <t>short_strand</t>
   </si>
   <si>
-    <t>CTCTTCGA</t>
-  </si>
-  <si>
-    <t>TGAAGAGG</t>
-  </si>
-  <si>
-    <t>AACGTCAC</t>
-  </si>
-  <si>
-    <t>TGCTACGA</t>
-  </si>
-  <si>
-    <t>GTAGATCG</t>
-  </si>
-  <si>
-    <t>TGCGTAAG</t>
-  </si>
-  <si>
-    <t>GCCTTGTA</t>
-  </si>
-  <si>
-    <t>CACACAAC</t>
-  </si>
-  <si>
-    <t>ACTTCGTC</t>
-  </si>
-  <si>
-    <t>GAACAGTC</t>
-  </si>
-  <si>
-    <t>GCGGTATA</t>
-  </si>
-  <si>
-    <t>CTTCTCAC</t>
-  </si>
-  <si>
-    <t>GAGACTAC</t>
-  </si>
-  <si>
-    <t>AGCCTTAC</t>
-  </si>
-  <si>
-    <t>GAGGATCA</t>
-  </si>
-  <si>
-    <t>CCATAGAG</t>
-  </si>
-  <si>
-    <t>ACAAGTGC</t>
-  </si>
-  <si>
-    <t>AATGCCTC</t>
-  </si>
-  <si>
-    <t>AGTGTTGC</t>
-  </si>
-  <si>
-    <t>CGAGCTTA</t>
-  </si>
-  <si>
-    <t>CTTATCGG</t>
-  </si>
-  <si>
-    <t>TCCTATGC</t>
-  </si>
-  <si>
-    <t>CCACTTAG</t>
-  </si>
-  <si>
-    <t>AGAGTCAG</t>
-  </si>
-  <si>
-    <t>TAGTGGGATTCCTGCTGTCAGTYYCTCTTCGA</t>
-  </si>
-  <si>
-    <t>TAGTGGGATTCCTGCTGTCAGTYYTGAAGAGG</t>
-  </si>
-  <si>
-    <t>TAGTGGGATTCCTGCTGTCAGTYYAACGTCAC</t>
-  </si>
-  <si>
-    <t>TAGTGGGATTCCTGCTGTCAGTYYTGCTACGA</t>
-  </si>
-  <si>
-    <t>TAGTGGGATTCCTGCTGTCAGTYYGTAGATCG</t>
-  </si>
-  <si>
-    <t>TAGTGGGATTCCTGCTGTCAGTYYTGCGTAAG</t>
-  </si>
-  <si>
-    <t>TAGTGGGATTCCTGCTGTCAGTYYGCCTTGTA</t>
-  </si>
-  <si>
-    <t>TAGTGGGATTCCTGCTGTCAGTYYCACACAAC</t>
-  </si>
-  <si>
-    <t>TAGTGGGATTCCTGCTGTCAGTYYACTTCGTC</t>
-  </si>
-  <si>
-    <t>TAGTGGGATTCCTGCTGTCAGTYYGAACAGTC</t>
-  </si>
-  <si>
-    <t>TAGTGGGATTCCTGCTGTCAGTYYGCGGTATA</t>
-  </si>
-  <si>
-    <t>TAGTGGGATTCCTGCTGTCAGTYYCTTCTCAC</t>
-  </si>
-  <si>
-    <t>TAGTGGGATTCCTGCTGTCAGTYYGAGACTAC</t>
-  </si>
-  <si>
-    <t>TAGTGGGATTCCTGCTGTCAGTYYAGCCTTAC</t>
-  </si>
-  <si>
-    <t>TAGTGGGATTCCTGCTGTCAGTYYGAGGATCA</t>
-  </si>
-  <si>
-    <t>TAGTGGGATTCCTGCTGTCAGTYYCCATAGAG</t>
-  </si>
-  <si>
-    <t>TAGTGGGATTCCTGCTGTCAGTYYACAAGTGC</t>
-  </si>
-  <si>
-    <t>TAGTGGGATTCCTGCTGTCAGTYYAATGCCTC</t>
-  </si>
-  <si>
-    <t>TAGTGGGATTCCTGCTGTCAGTYYAGTGTTGC</t>
-  </si>
-  <si>
-    <t>TAGTGGGATTCCTGCTGTCAGTYYCGAGCTTA</t>
-  </si>
-  <si>
-    <t>TAGTGGGATTCCTGCTGTCAGTYYCTTATCGG</t>
-  </si>
-  <si>
-    <t>TAGTGGGATTCCTGCTGTCAGTYYTCCTATGC</t>
-  </si>
-  <si>
-    <t>TAGTGGGATTCCTGCTGTCAGTYYCCACTTAG</t>
-  </si>
-  <si>
-    <t>TAGTGGGATTCCTGCTGTCAGTYYAGAGTCAG</t>
-  </si>
-  <si>
-    <t>TATCGAAGAGRR</t>
-  </si>
-  <si>
-    <t>TACCTCTTCARR</t>
-  </si>
-  <si>
-    <t>TAGTGACGTTRR</t>
-  </si>
-  <si>
-    <t>TATCGTAGCARR</t>
-  </si>
-  <si>
-    <t>TACGATCTACRR</t>
-  </si>
-  <si>
-    <t>TACTTACGCARR</t>
-  </si>
-  <si>
-    <t>TATACAAGGCRR</t>
-  </si>
-  <si>
-    <t>TAGTTGTGTGRR</t>
-  </si>
-  <si>
-    <t>TAGACGAAGTRR</t>
-  </si>
-  <si>
-    <t>TAGACTGTTCRR</t>
-  </si>
-  <si>
-    <t>TATATACCGCRR</t>
-  </si>
-  <si>
-    <t>TAGTGAGAAGRR</t>
-  </si>
-  <si>
-    <t>TAGTAGTCTCRR</t>
-  </si>
-  <si>
-    <t>TAGTAAGGCTRR</t>
-  </si>
-  <si>
-    <t>TATGATCCTCRR</t>
-  </si>
-  <si>
-    <t>TACTCTATGGRR</t>
-  </si>
-  <si>
-    <t>TAGCACTTGTRR</t>
-  </si>
-  <si>
-    <t>TAGAGGCATTRR</t>
-  </si>
-  <si>
-    <t>TAGCAACACTRR</t>
-  </si>
-  <si>
-    <t>TATAAGCTCGRR</t>
-  </si>
-  <si>
-    <t>TACCGATAAGRR</t>
-  </si>
-  <si>
-    <t>TAGCATAGGARR</t>
-  </si>
-  <si>
-    <t>TACTAAGTGGRR</t>
-  </si>
-  <si>
-    <t>TACTGACTCTRR</t>
+    <t>GTAGTAGATA</t>
+  </si>
+  <si>
+    <t>AAGAGTATAA</t>
+  </si>
+  <si>
+    <t>AATGTAAGAA</t>
+  </si>
+  <si>
+    <t>AGTATGAATG</t>
+  </si>
+  <si>
+    <t>AGAAGATATG</t>
+  </si>
+  <si>
+    <t>ATGAGAATGA</t>
+  </si>
+  <si>
+    <t>AAAGAAGTGA</t>
+  </si>
+  <si>
+    <t>TATGATGTAG</t>
+  </si>
+  <si>
+    <t>TAGAAGAATA</t>
+  </si>
+  <si>
+    <t>GTATGTGAAA</t>
+  </si>
+  <si>
+    <t>GTGTAATAAG</t>
+  </si>
+  <si>
+    <t>TGATAGATAG</t>
+  </si>
+  <si>
+    <t>AAATAGTAGA</t>
+  </si>
+  <si>
+    <t>TAATATAGAA</t>
+  </si>
+  <si>
+    <t>TGAAAGAAGA</t>
+  </si>
+  <si>
+    <t>ATAGAAAATG</t>
+  </si>
+  <si>
+    <t>TAGAATAAAA</t>
+  </si>
+  <si>
+    <t>GAGAGTATAG</t>
+  </si>
+  <si>
+    <t>TAGATAGATA</t>
+  </si>
+  <si>
+    <t>GAGAGAAATA</t>
+  </si>
+  <si>
+    <t>ATATGAGATA</t>
+  </si>
+  <si>
+    <t>GTAGAGATAA</t>
+  </si>
+  <si>
+    <t>AATAGTAATA</t>
+  </si>
+  <si>
+    <t>TAGAGTATAA</t>
+  </si>
+  <si>
+    <t>TAGTGGGATTGGTGGTGTGAGTWWGTAGTAGATA</t>
+  </si>
+  <si>
+    <t>TAGTGGGATTGGTGGTGTGAGTWWAAGAGTATAA</t>
+  </si>
+  <si>
+    <t>TAGTGGGATTGGTGGTGTGAGTWWAATGTAAGAA</t>
+  </si>
+  <si>
+    <t>TAGTGGGATTGGTGGTGTGAGTWWAGTATGAATG</t>
+  </si>
+  <si>
+    <t>TAGTGGGATTGGTGGTGTGAGTWWAGAAGATATG</t>
+  </si>
+  <si>
+    <t>TAGTGGGATTGGTGGTGTGAGTWWATGAGAATGA</t>
+  </si>
+  <si>
+    <t>TAGTGGGATTGGTGGTGTGAGTWWAAAGAAGTGA</t>
+  </si>
+  <si>
+    <t>TAGTGGGATTGGTGGTGTGAGTWWTATGATGTAG</t>
+  </si>
+  <si>
+    <t>TAGTGGGATTGGTGGTGTGAGTWWTAGAAGAATA</t>
+  </si>
+  <si>
+    <t>TAGTGGGATTGGTGGTGTGAGTWWGTATGTGAAA</t>
+  </si>
+  <si>
+    <t>TAGTGGGATTGGTGGTGTGAGTWWGTGTAATAAG</t>
+  </si>
+  <si>
+    <t>TAGTGGGATTGGTGGTGTGAGTWWTGATAGATAG</t>
+  </si>
+  <si>
+    <t>TAGTGGGATTGGTGGTGTGAGTWWAAATAGTAGA</t>
+  </si>
+  <si>
+    <t>TAGTGGGATTGGTGGTGTGAGTWWTAATATAGAA</t>
+  </si>
+  <si>
+    <t>TAGTGGGATTGGTGGTGTGAGTWWTGAAAGAAGA</t>
+  </si>
+  <si>
+    <t>TAGTGGGATTGGTGGTGTGAGTWWATAGAAAATG</t>
+  </si>
+  <si>
+    <t>TAGTGGGATTGGTGGTGTGAGTWWTAGAATAAAA</t>
+  </si>
+  <si>
+    <t>TAGTGGGATTGGTGGTGTGAGTWWGAGAGTATAG</t>
+  </si>
+  <si>
+    <t>TAGTGGGATTGGTGGTGTGAGTWWTAGATAGATA</t>
+  </si>
+  <si>
+    <t>TAGTGGGATTGGTGGTGTGAGTWWGAGAGAAATA</t>
+  </si>
+  <si>
+    <t>TAGTGGGATTGGTGGTGTGAGTWWATATGAGATA</t>
+  </si>
+  <si>
+    <t>TAGTGGGATTGGTGGTGTGAGTWWGTAGAGATAA</t>
+  </si>
+  <si>
+    <t>TAGTGGGATTGGTGGTGTGAGTWWAATAGTAATA</t>
+  </si>
+  <si>
+    <t>TAGTGGGATTGGTGGTGTGAGTWWTAGAGTATAA</t>
+  </si>
+  <si>
+    <t>TATATCTACTACSS</t>
+  </si>
+  <si>
+    <t>TATTATACTCTTSS</t>
+  </si>
+  <si>
+    <t>TATTCTTACATTSS</t>
+  </si>
+  <si>
+    <t>TACATTCATACTSS</t>
+  </si>
+  <si>
+    <t>TACATATCTTCTSS</t>
+  </si>
+  <si>
+    <t>TATCATTCTCATSS</t>
+  </si>
+  <si>
+    <t>TATCACTTCTTTSS</t>
+  </si>
+  <si>
+    <t>TACTACATCATASS</t>
+  </si>
+  <si>
+    <t>TATATTCTTCTASS</t>
+  </si>
+  <si>
+    <t>TATTTCACATACSS</t>
+  </si>
+  <si>
+    <t>TACTTATTACACSS</t>
+  </si>
+  <si>
+    <t>TACTATCTATCASS</t>
+  </si>
+  <si>
+    <t>TATCTACTATTTSS</t>
+  </si>
+  <si>
+    <t>TATTCTATATTASS</t>
+  </si>
+  <si>
+    <t>TATCTTCTTTCASS</t>
+  </si>
+  <si>
+    <t>TACATTTTCTATSS</t>
+  </si>
+  <si>
+    <t>TATTTTATTCTASS</t>
+  </si>
+  <si>
+    <t>TACTATACTCTCSS</t>
+  </si>
+  <si>
+    <t>TATATCTATCTASS</t>
+  </si>
+  <si>
+    <t>TATATTTCTCTCSS</t>
+  </si>
+  <si>
+    <t>TATATCTCATATSS</t>
+  </si>
+  <si>
+    <t>TATTATCTCTACSS</t>
+  </si>
+  <si>
+    <t>TATATTACTATTSS</t>
+  </si>
+  <si>
+    <t>TATTATACTCTASS</t>
   </si>
 </sst>
 </file>
